--- a/reports/2026-01-26.xlsx
+++ b/reports/2026-01-26.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-26 06:35 UTC</t>
+          <t>2026-01-26 20:01 UTC</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -630,31 +630,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0GUSDT</t>
+          <t>ZETAUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0G</t>
+          <t>ZetaChain</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.91</t>
+          <t>$0.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$194.24M</t>
+          <t>$100.65M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$2.45M</t>
+          <t>$1.74M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>47.5</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -676,31 +676,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MINAUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Livepeer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.09</t>
+          <t>$3.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$111.32M</t>
+          <t>$158.90M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$1.37M</t>
+          <t>$1.00M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>45.83</v>
+        <v>49.6</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>16.67</v>
+        <v>22.98</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -722,31 +722,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DASHUSDT</t>
+          <t>0GUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dash</t>
+          <t>0G</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$59.40</t>
+          <t>$0.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$746.76M</t>
+          <t>$197.89M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$9.66M</t>
+          <t>$1.82M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>37.5</v>
+        <v>47.5</v>
       </c>
       <c r="H4" t="n">
         <v>100</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -768,31 +768,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UNIUSDT</t>
+          <t>PUMPUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Pump.fun</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$4.57</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$2.91B</t>
+          <t>$946.02M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$12.45M</t>
+          <t>$4.66M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>34.29</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
         <v>100</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>21.45</v>
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -814,31 +814,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PEPEUSDT</t>
+          <t>DCRUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Decred</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$20.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$2.00B</t>
+          <t>$359.45M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$12.40M</t>
+          <t>$1.24M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
         <v>100</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENAUSDT</t>
+          <t>FFUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Falcon Finance</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$0.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$1.32B</t>
+          <t>$221.04M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$7.32M</t>
+          <t>$1.22M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>42.5</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -906,34 +906,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PUMPUSDT</t>
+          <t>RVNUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pump.fun</t>
+          <t>Ravencoin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$889.04M</t>
+          <t>$113.54M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$5.50M</t>
+          <t>$1.43M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>40.64</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>68.8</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -952,31 +952,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ASTERUSDT</t>
+          <t>JTOUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aster</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.61</t>
+          <t>$0.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$1.57B</t>
+          <t>$147.77M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$5.38M</t>
+          <t>$2.03M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>40.12</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>50.59</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -998,31 +998,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>MINAUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$1.27</t>
+          <t>$0.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$938.04M</t>
+          <t>$108.28M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$5.14M</t>
+          <t>$1.46M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>38.28</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>16.38</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1044,40 +1044,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>APTUSDT</t>
+          <t>DASHUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Dash</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$1.52</t>
+          <t>$60.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$1.17B</t>
+          <t>$754.68M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$4.94M</t>
+          <t>$8.99M</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>30</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1197,33 +1197,33 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$5087.77</t>
+          <t>$5040.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$2.23B</t>
+          <t>$2.21B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$12.95M</t>
+          <t>$16.25M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>50.24</v>
+        <v>73.56</v>
       </c>
       <c r="H2" t="n">
-        <v>67.08</v>
+        <v>49.99</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>45.1</v>
+        <v>40.41</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -1233,43 +1233,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PAXGUSDT</t>
+          <t>ZETAUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>ZetaChain</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$5103.39</t>
+          <t>$0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$2.05B</t>
+          <t>$100.65M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$23.17M</t>
+          <t>$1.74M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>48.65</v>
+        <v>57.12</v>
       </c>
       <c r="H3" t="n">
-        <v>62.67</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K3" t="n">
-        <v>44.78</v>
+        <v>60.81</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -1279,43 +1279,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RIVERUSDT</t>
+          <t>PAXGUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>River</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$76.32</t>
+          <t>$5053.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$1.51B</t>
+          <t>$2.05B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$6.68M</t>
+          <t>$30.88M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>37.21</v>
+        <v>45.33</v>
       </c>
       <c r="H4" t="n">
-        <v>6.31</v>
+        <v>47.09</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>39.94</v>
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
@@ -1335,17 +1335,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$2.01</t>
+          <t>$2.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$344.99M</t>
+          <t>$398.07M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$9.78M</t>
+          <t>$18.76M</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -1371,31 +1371,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ROSEUSDT</t>
+          <t>RIVERUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oasis</t>
+          <t>River</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$78.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$141.67M</t>
+          <t>$1.53B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$3.86M</t>
+          <t>$9.52M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L6" t="inlineStr"/>
     </row>
@@ -1417,43 +1417,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0GUSDT</t>
+          <t>RVNUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0G</t>
+          <t>Ravencoin</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.91</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$194.24M</t>
+          <t>$113.54M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$2.45M</t>
+          <t>$1.43M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>18.5</v>
+        <v>30.46</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>69.98</v>
+        <v>3.05</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -1463,43 +1463,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHZUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>Livepeer</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.05</t>
+          <t>$3.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$522.93M</t>
+          <t>$158.90M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$10.47M</t>
+          <t>$1.00M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>24.92</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.47</v>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>43.85</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -1509,43 +1509,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>FFUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Verge</t>
+          <t>Falcon Finance</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$117.81M</t>
+          <t>$221.04M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$1.37M</t>
+          <t>$1.22M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>24.53</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -1555,40 +1555,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINAUSDT</t>
+          <t>JTOUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.09</t>
+          <t>$0.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$111.32M</t>
+          <t>$147.77M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.37M</t>
+          <t>$2.03M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>15.5</v>
+        <v>22.76</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>75.88</v>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1601,31 +1601,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DASHUSDT</t>
+          <t>XVGUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dash</t>
+          <t>Verge</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$59.40</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$746.76M</t>
+          <t>$121.36M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$9.66M</t>
+          <t>$1.10M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>21.31</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
@@ -1744,43 +1744,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RIVERUSDT</t>
+          <t>ZETAUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>River</t>
+          <t>ZetaChain</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$76.32</t>
+          <t>$0.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$1.51B</t>
+          <t>$100.65M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$6.68M</t>
+          <t>$1.74M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
         <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -1790,43 +1790,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHZUSDT</t>
+          <t>XAUTUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.05</t>
+          <t>$5040.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$522.93M</t>
+          <t>$2.21B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$10.47M</t>
+          <t>$16.25M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -1836,40 +1836,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROSEUSDT</t>
+          <t>RIVERUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Oasis</t>
+          <t>River</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$78.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$141.67M</t>
+          <t>$1.53B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$3.86M</t>
+          <t>$9.52M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
         <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1882,40 +1882,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PAXGUSDT</t>
+          <t>CHZUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Chiliz</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$5103.39</t>
+          <t>$0.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$2.05B</t>
+          <t>$545.47M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$23.17M</t>
+          <t>$6.22M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1928,31 +1928,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>XAUTUSDT</t>
+          <t>PAXGUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$5087.77</t>
+          <t>$5053.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$2.23B</t>
+          <t>$2.05B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$12.95M</t>
+          <t>$30.88M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>37</v>
+        <v>40.4</v>
       </c>
       <c r="H6" t="n">
         <v>90</v>
@@ -1961,10 +1961,10 @@
         <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>29.52</v>
       </c>
       <c r="L6" t="inlineStr"/>
     </row>
@@ -1974,40 +1974,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>XVGUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Verge</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$2.01</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$344.99M</t>
+          <t>$121.36M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$9.78M</t>
+          <t>$1.10M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>35</v>
+        <v>39.5</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I7" t="n">
         <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2020,43 +2020,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>ROSEUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Verge</t>
+          <t>Oasis</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$117.81M</t>
+          <t>$141.17M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$1.37M</t>
+          <t>$3.76M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>34</v>
+        <v>38.8</v>
       </c>
       <c r="H8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -2066,40 +2066,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DASHUSDT</t>
+          <t>PUMPUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dash</t>
+          <t>Pump.fun</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$59.40</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$746.76M</t>
+          <t>$946.02M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$9.66M</t>
+          <t>$4.66M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2112,49 +2112,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINAUSDT</t>
+          <t>DCRUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Decred</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.09</t>
+          <t>$20.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$111.32M</t>
+          <t>$359.45M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.37M</t>
+          <t>$1.24M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>23.25</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>45</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>broken_trend</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2162,49 +2158,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PUMPUSDT</t>
+          <t>AXSUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pump.fun</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$2.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$889.04M</t>
+          <t>$398.07M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$5.50M</t>
+          <t>$18.76M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>22.5</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>broken_trend</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L11"/>

--- a/reports/2026-01-26.xlsx
+++ b/reports/2026-01-26.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-26 20:01 UTC</t>
+          <t>2026-01-26 20:44 UTC</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -645,12 +645,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$100.65M</t>
+          <t>$100.33M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$1.74M</t>
+          <t>$1.76M</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -686,21 +686,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$3.23</t>
+          <t>$3.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$158.90M</t>
+          <t>$159.12M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$1.00M</t>
+          <t>$1.01M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>49.6</v>
+        <v>49.87</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
@@ -712,7 +712,7 @@
         <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>22.98</v>
+        <v>24.35</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -732,17 +732,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.93</t>
+          <t>$0.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$197.89M</t>
+          <t>$195.36M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$1.82M</t>
+          <t>$1.80M</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$946.02M</t>
+          <t>$953.32M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$4.66M</t>
+          <t>$4.62M</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -824,17 +824,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$20.88</t>
+          <t>$21.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$359.45M</t>
+          <t>$360.23M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$1.24M</t>
+          <t>$1.26M</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -870,17 +870,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.09</t>
+          <t>$0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$221.04M</t>
+          <t>$221.95M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1.22M</t>
+          <t>$1.25M</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$113.54M</t>
+          <t>$113.19M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>40.64</v>
+        <v>41.08</v>
       </c>
       <c r="H8" t="n">
-        <v>68.8</v>
+        <v>70.27</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -967,16 +967,16 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$147.77M</t>
+          <t>$146.44M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$2.03M</t>
+          <t>$2.02M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>40.12</v>
+        <v>40.58</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>50.59</v>
+        <v>52.92</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -1008,21 +1008,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.09</t>
+          <t>$0.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$108.28M</t>
+          <t>$108.02M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.46M</t>
+          <t>$1.43M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>38.28</v>
+        <v>38.36</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -1034,7 +1034,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>16.38</v>
+        <v>16.82</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1054,17 +1054,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$60.11</t>
+          <t>$59.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$754.68M</t>
+          <t>$748.18M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$8.99M</t>
+          <t>$8.46M</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1197,24 +1197,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$5040.68</t>
+          <t>$5054.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$2.21B</t>
+          <t>$2.22B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$16.25M</t>
+          <t>$16.33M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>73.56</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>49.99</v>
+        <v>52.8</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1223,7 +1223,7 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>40.41</v>
+        <v>41.51</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -1248,16 +1248,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$100.65M</t>
+          <t>$100.33M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$1.74M</t>
+          <t>$1.76M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>57.12</v>
+        <v>56.59</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>90</v>
       </c>
       <c r="K3" t="n">
-        <v>60.81</v>
+        <v>57.29</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -1289,33 +1289,33 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$5053.00</t>
+          <t>$5068.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$2.05B</t>
+          <t>$2.06B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$30.88M</t>
+          <t>$30.92M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>45.33</v>
+        <v>47.17</v>
       </c>
       <c r="H4" t="n">
-        <v>47.09</v>
+        <v>49.97</v>
       </c>
       <c r="I4" t="n">
-        <v>9.52</v>
+        <v>11.74</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>39.94</v>
+        <v>41.07</v>
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$398.07M</t>
+          <t>$395.41M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$18.76M</t>
+          <t>$18.85M</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -1381,17 +1381,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$78.65</t>
+          <t>$79.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$1.53B</t>
+          <t>$1.57B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$9.52M</t>
+          <t>$9.43M</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1417,43 +1417,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RVNUSDT</t>
+          <t>ZROUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ravencoin</t>
+          <t>LayerZero</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$2.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$113.54M</t>
+          <t>$590.31M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1.43M</t>
+          <t>$1.13M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>30.46</v>
+        <v>32.24</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>3.05</v>
+        <v>81.59</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -1463,43 +1463,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LPTUSDT</t>
+          <t>RVNUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Livepeer</t>
+          <t>Ravencoin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$3.23</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$158.90M</t>
+          <t>$113.19M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$1.00M</t>
+          <t>$1.43M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>24.92</v>
+        <v>30.06</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.47</v>
+        <v>100</v>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>43.85</v>
+        <v>0.43</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -1519,24 +1519,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.09</t>
+          <t>$0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$221.04M</t>
+          <t>$221.95M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$1.22M</t>
+          <t>$1.25M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>24.53</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
-        <v>8.869999999999999</v>
+        <v>14.82</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>76.18000000000001</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -1555,43 +1555,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JTOUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>Livepeer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.34</t>
+          <t>$3.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$147.77M</t>
+          <t>$159.12M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$2.03M</t>
+          <t>$1.01M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>22.76</v>
+        <v>25.63</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>75.88</v>
+        <v>36.52</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>44.52</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1601,43 +1601,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>JTOUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Verge</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$121.36M</t>
+          <t>$146.44M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.10M</t>
+          <t>$2.02M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>21.31</v>
+        <v>23.81</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.38</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$100.65M</t>
+          <t>$100.33M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$1.74M</t>
+          <t>$1.76M</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -1800,17 +1800,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$5040.68</t>
+          <t>$5054.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$2.21B</t>
+          <t>$2.22B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$16.25M</t>
+          <t>$16.33M</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1846,17 +1846,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$78.65</t>
+          <t>$79.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$1.53B</t>
+          <t>$1.57B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$9.52M</t>
+          <t>$9.43M</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1882,40 +1882,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHZUSDT</t>
+          <t>ZROUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>LayerZero</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.05</t>
+          <t>$2.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$545.47M</t>
+          <t>$590.31M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$6.22M</t>
+          <t>$1.13M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>47.5</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1928,43 +1928,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PAXGUSDT</t>
+          <t>XVGUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Verge</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$5053.00</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$2.05B</t>
+          <t>$120.46M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$30.88M</t>
+          <t>$1.04M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>40.4</v>
+        <v>44.5</v>
       </c>
       <c r="H6" t="n">
         <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>29.52</v>
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr"/>
     </row>
@@ -1974,40 +1974,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>CHZUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Verge</t>
+          <t>Chiliz</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$121.36M</t>
+          <t>$544.09M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1.10M</t>
+          <t>$6.24M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>39.5</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2020,43 +2020,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ROSEUSDT</t>
+          <t>PAXGUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Oasis</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$5068.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$141.17M</t>
+          <t>$2.06B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$3.76M</t>
+          <t>$30.92M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>38.8</v>
+        <v>40.85</v>
       </c>
       <c r="H8" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I8" t="n">
         <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>4.02</v>
+        <v>31.74</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -2066,40 +2066,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PUMPUSDT</t>
+          <t>DCRUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pump.fun</t>
+          <t>Decred</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$21.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$946.02M</t>
+          <t>$360.23M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$4.66M</t>
+          <t>$1.26M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I9" t="n">
         <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2112,27 +2112,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DCRUSDT</t>
+          <t>PUMPUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Decred</t>
+          <t>Pump.fun</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$20.88</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$359.45M</t>
+          <t>$953.32M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.24M</t>
+          <t>$4.62M</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2142,10 +2142,10 @@
         <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -2173,12 +2173,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$398.07M</t>
+          <t>$395.41M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$18.76M</t>
+          <t>$18.85M</t>
         </is>
       </c>
       <c r="G11" t="n">
